--- a/gameSummaries.xlsx
+++ b/gameSummaries.xlsx
@@ -356,10 +356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -408,12 +408,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bb8039b8-e161-4a80-bc8c-39924bb91ee1</t>
+          <t>fbf1e687-9b1a-4f30-b153-fde30ddc7c86</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-30 14:56:16 CST</t>
+          <t>2021-12-10 20:38:10 CST</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -423,34 +423,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11431, 181872, 272099, 146801, 371681, 249149, 227251, 71884, 1667, 243082</t>
+          <t>241764, 403630, 346941, 356040, 416811, 211601, 385760, 422138, 422121, 254702</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dogg, XrCyclone, Mr_Manz, Anthonv, not_da_real_skul__kid101, BillyBobJones527, DeIta, beanstalk, Cape90, Kazz_other</t>
+          <t>DaPiFanatic, Snailchan, spacesquidy, OnSchedule, Monkeygoberserk, TheJoker2201, SeokkSquirrel, wishy, Swanlake, pxl8dblood</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>361059, 371225, 370178</t>
+          <t>352067, 2822, 304350</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rincle, Renb0w, gh0st5</t>
+          <t>Sephiroth_99, DKDanny, OwjoDough</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9c94d7b2-5608-41a9-ae5f-2b21f4c251c4</t>
+          <t>f7a6fbb8-45a6-449a-9794-063db69a0966</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-07-30 15:38:39 CST</t>
+          <t>2021-12-10 21:19:50 CST</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -460,34 +460,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>144545, 112006, 361059</t>
+          <t>356040, 422138, 119590</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bobbyj, billywies, Rincle</t>
+          <t>OnSchedule, wishy, SecretAgent7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>152031, 249149, 181872, 177702, 1667, 367845, 227251, 355801, 71884, 243082</t>
+          <t>390351, 419635, 105077, 352067, 422121, 416811, 211601, 372793, 385760, 254702</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>jera, BillyBobJones527, XrCyclone, The_Pretender, Cape90, Enzopropro, DeIta, Some_Random, beanstalk, Kazz_other</t>
+          <t>mymumissus, Fox14, Jotaro_Kirbo, Sephiroth_99, Swanlake, Monkeygoberserk, TheJoker2201, CptCanuck, SeokkSquirrel, pxl8dblood</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1d8c1005-6593-46ce-8b6a-5c573e3a3f44</t>
+          <t>b754f7d7-52d5-461d-94a8-6a207e1d26e6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-08-02 21:43:36 CST</t>
+          <t>2021-12-10 22:01:35 CST</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,34 +497,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>290506, 278087, 348507, 71884, 370679, 346810, 336438, 278157, 355801, 46316</t>
+          <t>422121, 385760, 301198, 254702, 419991, 414123, 71884, 352067, 119590, 211601</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SieZoo, NoobishGaming, Aaron_, beanstalk, slvttea, lightningjr, MissPoet, AshShinoX, Some_Random, Chow0914</t>
+          <t>Swanlake, SeokkSquirrel, Scotland, pxl8dblood, WiX21, ImInsanelyBadAtMafia, beanstalk, Sephiroth_99, SecretAgent7, TheJoker2201</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>146801, 181637, 334176</t>
+          <t>419635, 422138, 294154</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anthonv, GreenParrot, Bacon_Dragon098</t>
+          <t>Fox14, wishy, PowerLite</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>abb15d06-85eb-4684-bd95-be08d8bf8398</t>
+          <t>e79841cb-5633-431a-ad77-65e458d4bc24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-08-02 22:16:34 CST</t>
+          <t>2021-12-29 21:39:11 CST</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -534,22 +534,1687 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>71884, 355801, 278157</t>
+          <t>412606, 317745, 112094</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>beanstalk, Some_Random, AshShinoX</t>
+          <t>M00SE_35, ThePiedPiperOfMafia, tambreswallows</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>336438, 370679, 10366, 146801, 177702, 348507, 368357, 290506, 335380, 278087</t>
+          <t>100555, 398937, 2822, 28626, 167206, 122001, 290506, 400921, 398679, 308324</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MissPoet, slvttea, kdak1, Anthonv, The_Pretender, Aaron_, yuzutea, SieZoo, Erato, NoobishGaming</t>
+          <t>DarkB, startree, DKDanny, 12tacos12, Hayasaka, JJMachtej, SieZoo, jonis, KcGamer02, JasonVoorhees</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>86e6f5cf-0669-4326-9906-b3ca47e42290</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-12-29 22:39:23 CST</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>231483, 398937, 290506, 28251, 181872, 412606, 167206, 422138, 317745, 28626</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>penus, startree, SieZoo, C9MANGOAT, XrCyclone, M00SE_35, Hayasaka, wishy, ThePiedPiperOfMafia, 12tacos12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>134776, 122001, 71884</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>btown, JJMachtej, beanstalk</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5c1221e6-dc03-4743-8f5c-344b9c332c23</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-12-29 23:10:46 CST</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>233619, 28626, 28251, 134776, 398937, 396615, 412606, 181872, 421326, 422138</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sOHiJK, 12tacos12, C9MANGOAT, btown, startree, Quiet_Player, M00SE_35, XrCyclone, MainTree, wishy</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>231483, 302529, 403630</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>penus, NotTheMafia3000, Snailchan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1fd1f6fe-0e2b-4375-af94-0306ae701584</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2022-01-07 21:20:24 CST</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>227251, 425581, 181872</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DeIta, sneedle, XrCyclone</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>58097, 211601, 368357, 430895, 430923, 71884, 346628, 302529, 115765, 327162</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>EzClapster69, TheJoker2201, yuzutea, Polaris0, MadDuckMobster, beanstalk, PacketofPride, NotTheMafia3000, SoKudo, ceylonbtea</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>b600fcdc-cfd3-4d8f-9497-623ae85c8399</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022-01-07 21:48:34 CST</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>416237, 307674, 368357</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TheLittlePrince, imasavage, yuzutea</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>430895, 115765, 24179, 97846, 302529, 346628, 28943, 58097, 181872, 275194</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Polaris0, SoKudo, Khabib_Time, TownSyndrome, NotTheMafia3000, PacketofPride, NotWhiteRice, EzClapster69, XrCyclone, Enaxie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>680353b2-2c22-445f-94ac-674cf03907cb</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-01-07 22:10:32 CST</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24179, 430715, 83166, 416237, 275194, 430895, 58097, 308324, 302529, 290506</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Khabib_Time, ranboozler, popstarya, TheLittlePrince, Enaxie, Polaris0, EzClapster69, JasonVoorhees, NotTheMafia3000, SieZoo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>97846, 167206, 346628</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>TownSyndrome, Hayasaka, PacketofPride</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09bf1d44-a858-47ac-affb-86c2f6e32a98</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-01-07 22:47:25 CST</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97846, 416237, 430382, 58097, 290506, 430895, 83166, 43473, 346628, 302529</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TownSyndrome, TheLittlePrince, littlebeany, EzClapster69, SieZoo, Polaris0, popstarya, BakedBeens, PacketofPride, NotTheMafia3000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>275194, 430715, 24179</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Enaxie, ranboozler, Khabib_Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>29dbdb65-fe43-4b33-917f-291ca6f17b2b</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022-01-07 23:30:04 CST</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>166527, 430715, 290506</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>justin8x, ranboozler, SieZoo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>238893, 302529, 181872, 20994, 302093, 251997, 402943, 83166, 430895, 307378</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>HighChariot, NotTheMafia3000, XrCyclone, Lavender, Marin_Karin, linkboi22, Kingbemo, popstarya, Polaris0, pingu101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6f6454a7-b57f-4399-ae59-ec1cb693ecb6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2022-01-08 00:02:33 CST</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>307378, 255085, 166527</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pingu101, azulae, justin8x</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>430895, 290506, 20994, 402943, 302529, 181872, 238893, 422610, 430715, 83166</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Polaris0, SieZoo, Lavender, Kingbemo, NotTheMafia3000, XrCyclone, HighChariot, YOIMBOB, ranboozler, popstarya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3f764737-5ec8-48fa-b5f2-b9190049dc4b</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2022-01-14 20:48:26 CST</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1667, 302529, 181872</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cape90, NotTheMafia3000, XrCyclone</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>418343, 255085, 45575, 433100, 432776, 430323, 304350, 7961, 291967, 259321</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nikitasilkovabackupacc, azulae, 5uyu5, Beg_4_Mercy, XCodes, BlizzlerButNot, OwjoDough, MrCrispy, pandora, coat_san</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bb00ef46-c2a0-490a-9a80-9fd0fba6d6e5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-01-14 21:16:16 CST</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>291967, 211601, 7961</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>pandora, TheJoker2201, MrCrispy</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>364495, 45575, 418343, 433100, 1667, 302529, 255085, 259321, 432776, 86883</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FrostFlame, 5uyu5, nikitasilkovabackupacc, Beg_4_Mercy, Cape90, NotTheMafia3000, azulae, coat_san, XCodes, h3ll_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>86729749-b92d-4049-85ea-487c708f3476</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022-01-14 21:36:42 CST</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>302529, 364495, 86883</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NotTheMafia3000, FrostFlame, h3ll_o</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>45575, 255085, 259321, 248303, 432776, 400031, 7961, 211601, 422138, 1667</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5uyu5, azulae, coat_san, GRANDMAA, XCodes, gosling123, MrCrispy, TheJoker2201, wishy, Cape90</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>94c38534-6df0-467f-a628-1bba05bc38e2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022-01-14 22:30:28 CST</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>295289, 119590, 45575, 302529, 429676, 433437, 211601, 432776, 255085, 28626</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>digidotgaming, SecretAgent7, 5uyu5, NotTheMafia3000, potterhead, kingsShadow, TheJoker2201, XCodes, azulae, 12tacos12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>429082, 364495, 86883</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>_Just_Someone, FrostFlame, h3ll_o</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>965f853a-b6e2-4292-b254-9fb1ce5807da</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022-01-21 20:45:35 CST</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>259321, 254702, 211601</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>coat_san, pxl8dblood, TheJoker2201</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>435109, 317745, 28626, 416237, 233071, 55, 260756, 119743, 402943, 434318</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>UNDOMINABLE, ThePiedPiperOfMafia, 12tacos12, TheLittlePrince, Poggles, chuckbatman, red_scorpion8, tellyg47, Kingbemo, LGames</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7a14df67-af76-4cb6-9eb9-e85fe1b38134</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2022-01-21 21:14:15 CST</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>233071, 302529, 291967</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Poggles, NotTheMafia3000, pandora</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>361380, 425877, 317745, 435109, 434599, 434318, 28626, 124568, 402943, 259321</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RandoGuy, Lightstalker555, ThePiedPiperOfMafia, UNDOMINABLE, b3rt3st, LGames, 12tacos12, Quoth_The_Raven, Kingbemo, coat_san</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>82fcb959-158e-44de-b89a-5fbee0b8d910</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2022-01-21 21:47:51 CST</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>435614, 361380, 302529</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>saturn311, RandoGuy, NotTheMafia3000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>434318, 233071, 245064, 259321, 28626, 364495, 434599, 402943, 124568, 425877</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LGames, Poggles, boltlightning3, coat_san, 12tacos12, FrostFlame, b3rt3st, Kingbemo, Quoth_The_Raven, Lightstalker555</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>75b4e6e9-822a-46d0-8d91-20b47204d695</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2022-01-21 22:36:04 CST</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>302529, 245064, 364495</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NotTheMafia3000, boltlightning3, FrostFlame</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4002, 211601, 302093, 28626, 434599, 124568, 233071, 430923, 434318, 323916</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tigerbladedn, TheJoker2201, Marin_Karin, 12tacos12, b3rt3st, Quoth_The_Raven, Poggles, MadDuckMobster, LGames, nikitasilkova</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2a298b4b-e6a6-45ea-8d73-83848e3de89d</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022-01-21 23:24:00 CST</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>397513, 28251, 414113</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>taiimi, C9MANGOAT, ChEzIt</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>434318, 432776, 302529, 124568, 181872, 28626, 233071, 302093, 4002, 211601</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>LGames, XCodes, NotTheMafia3000, Quoth_The_Raven, XrCyclone, 12tacos12, Poggles, Marin_Karin, Tigerbladedn, TheJoker2201</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18de41db-3257-42ed-98c4-658bf7b35752</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022-01-28 21:23:09 CST</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>434318, 71884, 181872, 307547, 287517, 438312, 307674, 436227, 437043, 302529</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LGames, beanstalk, XrCyclone, gemrsuh, NameName22, TrashOfCountsFamily, imasavage, animaf, Auxo, NotTheMafia3000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>245064, 405739, 3930</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>boltlightning3, kingpeanut11, Kurogane_</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>430bd3c4-1058-49fb-9a88-c19b70d3aaef</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022-01-28 22:18:05 CST</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>405739, 3930, 413383</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>kingpeanut11, Kurogane_, davidt826</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>437043, 16875, 233071, 33571, 124568, 287517, 434318, 416237, 436726, 245064</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Auxo, AbsolutioNeXt, Poggles, TeaThistle, Quoth_The_Raven, NameName22, LGames, TheLittlePrince, DoctorJohn, boltlightning3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>b70e363e-fd8e-421e-ba66-bcaabf2bc672</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2022-01-28 23:00:31 CST</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>405739, 413383, 45575</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>kingpeanut11, davidt826, 5uyu5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>259321, 181872, 286815, 434318, 364495, 225634, 302093, 287517, 436575, 71884</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>coat_san, XrCyclone, lailareeze12, LGames, FrostFlame, PurplePoptart, Marin_Karin, NameName22, Electrona, beanstalk</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>709f8b79-3780-471b-bf04-c411e749559d</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022-02-04 20:50:54 CST</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>425877, 181872, 438312, 280906, 119590, 416237, 336844, 364495, 427679, 176472</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lightstalker555, XrCyclone, TrashOfCountsFamily, Pscychiae, SecretAgent7, TheLittlePrince, Mkool14, FrostFlame, lemonado, LukeBurrows</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>304350, 171114, 440848</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>OwjoDough, MrSponta, MCmagic2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>30475d83-284b-4413-8161-aa1229ce4fb4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022-02-04 21:18:23 CST</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28626, 176472, 302093</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12tacos12, LukeBurrows, Marin_Karin</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>427679, 439056, 304350, 385792, 181637, 425877, 171114, 119590, 181872, 280906</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>lemonado, centaur21, OwjoDough, FlameFrost, GreenParrot, Lightstalker555, MrSponta, SecretAgent7, XrCyclone, Pscychiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>aa30e22f-c71d-4b67-a0a6-1d555ddf4cf1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2022-02-04 22:03:54 CST</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>439945, 439056, 119590</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>furtiveglance, centaur21, SecretAgent7</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>304350, 28626, 440729, 176472, 430895, 171114, 39713, 427679, 393089, 245064</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>OwjoDough, 12tacos12, HEEHEEHEEHAW, LukeBurrows, Polaris0, MrSponta, bruhmoments, lemonado, AlterEgo, boltlightning3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3a92cf28-873e-4f93-a91c-cc50e0dbbbe2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022-02-04 22:30:27 CST</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>440199, 304350, 439056, 119590, 396615, 390736, 176472, 439945, 352067, 171114</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PassionAndFlame, OwjoDough, centaur21, SecretAgent7, Quiet_Player, FrostedFlakes, LukeBurrows, furtiveglance, Sephiroth_99, MrSponta</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>437097, 39713, 181637</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>i_love_starly, bruhmoments, GreenParrot</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4290762f-3efb-4445-a5e2-78807a1808e8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2022-02-11 21:13:42 CST</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>439945, 361380, 434779</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>furtiveglance, RandoGuy, ReversedNeckSnap</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>439056, 307547, 364495, 442699, 407588, 430923, 302529, 418012, 427512, 245064</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>centaur21, gemrsuh, FrostFlame, skyezsleepinn, matrixie, MadDuckMobster, NotTheMafia3000, z4ra0, FireOfBoredom, boltlightning3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>264d8f13-c293-423a-996e-1ee577dbe96f</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022-02-11 21:46:38 CST</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>302529, 307547, 407588, 20994, 364495, 439056, 440357, 434779, 361380, 112094</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NotTheMafia3000, gemrsuh, matrixie, Lavender, FrostFlame, centaur21, LucasWereg, ReversedNeckSnap, RandoGuy, tambreswallows</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>425877, 245064, 439945</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lightstalker555, boltlightning3, furtiveglance</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>098b3efb-9e71-4e41-b9f4-4704f937cffe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022-02-11 23:15:21 CST</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>275801, 47719, 338156</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>mafurako, Tosh, fairyboots</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>442947, 352067, 291967, 163120, 385792, 198128, 442605, 417577, 442946, 427679</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>quackbeans, Sephiroth_99, pandora, mma_fighter082, FlameFrost, peachnyoungs, BIizzer, WayneJ, skyezhq, lemonado</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>749636b8-3b4e-4fe3-aa5c-9cd1dae4c0cf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022-02-18 21:05:50 CST</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>398937, 364495, 28626, 6706, 296231, 100232, 434598, 275801, 430923, 414389</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>startree, FrostFlame, 12tacos12, falcoloyd123, EchoV, RemusSaxa, NightReaper, mafurako, MadDuckMobster, HEYYAH</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>245064, 233619, 390351</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>boltlightning3, sOHiJK, mymumissus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>656cf6a0-a8c5-45b2-95a5-917746c175ec</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022-03-04 21:46:43 CST</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>302093, 223234, 27331, 439945, 71884, 447633, 385006, 448860, 414725, 402943</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Marin_Karin, bananadude69, cookingmama, furtiveglance, beanstalk, khaiworld, TheRogueAssassinShay, aughhhhhh, Anatidaephobia, Kingbemo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>255874, 272699, 358797</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>_DragonBlade_, chug, Potatoesaregood</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>d85f5809-e24a-4da0-982c-fd41c782b8ad</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022-04-08 20:17:17 CST</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>447351, 414389, 221939, 171114, 390351, 407932, 361380, 369196, 460780, 20994</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Attax, HEYYAH, auzairr, MrSponta, mymumissus, hate, RandoGuy, gooselord, rlstzakk, Lavender</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>439945, 151166, 152094</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>furtiveglance, AttackTomato, neontheif</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0f2ae1f6-446d-4f3d-937f-3c7d02d8e61e</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2022-04-08 20:52:10 CST</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>446457, 447351, 361380</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>gretch_, Attax, RandoGuy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>287214, 390351, 402943, 221939, 28626, 171114, 407932, 147521, 414389, 439945</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>cutiepatootie, mymumissus, Kingbemo, auzairr, 12tacos12, MrSponta, hate, frankerz, HEYYAH, furtiveglance</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bc4531c0-7414-4716-bb18-c60a4ea78495</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022-04-08 21:15:22 CST</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>119590, 456778, 459000, 390351, 361380, 407932, 439945, 459361, 459039, 447351</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SecretAgent7, N33d13t4i1, TheGardener, mymumissus, RandoGuy, hate, furtiveglance, JohnnyHotbody, TheArbiter, Attax</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>446457, 171114, 28626</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>gretch_, MrSponta, 12tacos12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0d5506ed-e0b9-43ac-a403-b281972e3f4c</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022-04-08 21:38:52 CST</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>336208, 219335, 296697</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TownDotGG, HiyokoKinnie, FusianDew</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>459039, 119590, 171114, 459000, 447351, 407932, 456778, 28626, 459361, 4945</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TheArbiter, SecretAgent7, MrSponta, TheGardener, Attax, hate, N33d13t4i1, 12tacos12, JohnnyHotbody, Dare_99</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>83616cea-a220-40a6-950b-c9ce81c7ab4e</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022-04-08 22:12:19 CST</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28626, 296697, 439945, 171114, 319529, 459361, 127107, 261534, 390351, 459039</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12tacos12, FusianDew, furtiveglance, MrSponta, kiYubEE, JohnnyHotbody, ladyrat, Molybdenum, mymumissus, TheArbiter</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>447351, 459000, 4945</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Attax, TheGardener, Dare_99</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>47682f09-7cfc-40eb-b969-0ce228f66a06</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022-04-15 21:08:39 CST</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>112094, 461410, 414725</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>tambreswallows, Souh4yori, Anatidaephobia</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>233071, 460780, 307547, 154094, 369196, 461994, 398937, 438970, 462846, 462596</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Poggles, rlstzakk, gemrsuh, mangomangomango, gooselord, emmmmmmmmmmmm, startree, AngeryDoggo, toast4life, ninthcloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5ad69f56-a0e9-4938-9e54-22ae17c7372d</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022-04-15 21:43:52 CST</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>171114, 461615, 307547</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MrSponta, kurhtywertyk, gemrsuh</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>390351, 127107, 45575, 273345, 245064, 462846, 369196, 430715, 462596, 414725</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>mymumissus, ladyrat, 5uyu5, YulloIG, boltlightning3, toast4life, gooselord, ranboozler, ninthcloud, Anatidaephobia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>acd23748-1e35-47b5-9c7a-8e91915251e6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2022-04-15 22:22:48 CST</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>245064, 171114, 296697, 154094, 182502, 182501, 295947, 390351, 369196, 346810</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>boltlightning3, MrSponta, FusianDew, mangomangomango, bobbybigbands, BigPapaPanther, Illumina, mymumissus, gooselord, lightningjr</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>462596, 45575, 430715</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ninthcloud, 5uyu5, ranboozler</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>fe2aaf39-9622-4765-ac01-72f8db8aff57</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2022-04-15 22:54:54 CST</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>430715, 413467, 462817</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ranboozler, azuli, SerenaPaleneeee</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>462596, 182502, 182501, 295947, 210366, 462868, 208603, 369196, 436575, 171114</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ninthcloud, bobbybigbands, BigPapaPanther, Illumina, dedf1sh, TimeIsNearlyOver, breakingamber, gooselord, Electrona, MrSponta</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13c4d776-e92c-41f7-8626-56ca2028ad3a</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2022-04-15 23:34:37 CST</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>413467, 462889, 456778</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>azuli, AChordOfVioletCanzona, N33d13t4i1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>390351, 434527, 436575, 462817, 369196, 208603, 457759, 171114, 295947, 210366</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>mymumissus, Yuki12, Electrona, SerenaPaleneeee, gooselord, breakingamber, rosalie, MrSponta, Illumina, dedf1sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6daa5b15-61c5-4b40-855a-b0448ceb206b</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2022-04-22 22:15:00 CST</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>407932, 461119, 6462, 302529, 369196, 27331, 293775, 285314, 446063, 462119</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>hate, azazel3412, bip0lar_express, NotTheMafia3000, gooselord, cookingmama, amongsus, eebrab, superdave, memmer120</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>295947, 37060, 8932</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Illumina, coll23, SuperToad916</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cefa7c0b-53de-4e14-bafa-9c2798e13b2a</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2022-04-22 22:52:06 CST</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>49223, 293775, 464344</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ChaosCobra, amongsus, SDCYT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>461119, 464983, 285314, 462119, 446063, 295947, 407932, 427531, 8932, 6462</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>azazel3412, chunksFunnyFr, eebrab, memmer120, superdave, Illumina, hate, EXE_bruh, SuperToad916, bip0lar_express</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>63be6dd4-8009-46da-97d2-ce976c1b1cf5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2022-04-29 20:17:29 CST</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>28251, 361380, 154674</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C9MANGOAT, RandoGuy, ghostshell</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>461410, 444272, 439945, 35424, 438970, 465167, 466814, 28626, 306815, 413467</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Souh4yori, superbowler, furtiveglance, Electric_Programer, AngeryDoggo, zcore, BigsharkKelly, 12tacos12, vCapalot, azuli</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>c30e2d44-ed12-438f-977a-11f43ab6666a</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2022-05-27 21:41:10 CST</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>28626, 474066, 439945</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12tacos12, 1MoonyScar, furtiveglance</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>414725, 473781, 439056, 462119, 33510, 171001, 169364, 267688, 295947, 390351</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Anatidaephobia, icedchaii, centaur21, memmer120, AhmereS13, SVEN777, lucidream_Pi, GARBGE, Illumina, mymumissus</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6825cd6b-6917-4f23-90ae-eddef0387ff6</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2022-05-27 22:07:53 CST</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20994, 439056, 414725, 439945, 171001, 191814, 474066, 473781, 33510, 295947</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Lavender, centaur21, Anatidaephobia, furtiveglance, SVEN777, Ekizeel, 1MoonyScar, icedchaii, AhmereS13, Illumina</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>169364, 390351, 267688</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>lucidream_Pi, mymumissus, GARBGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2fd5cc3b-a778-4ea5-90b0-5f62dcf57e4b</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2022-05-27 22:48:22 CST</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>267688, 169364, 33510, 473784, 474066, 439945, 422604, 295947, 439056, 20994</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GARBGE, lucidream_Pi, AhmereS13, N3xus, 1MoonyScar, furtiveglance, socialdeducter, Illumina, centaur21, Lavender</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>414725, 390351, 191814</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Anatidaephobia, mymumissus, Ekizeel</t>
         </is>
       </c>
     </row>
